--- a/trello_report_vorlage.xlsx
+++ b/trello_report_vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml/Documents/GitHub/SodisTools_development/SodisTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78860972-7AD4-5D45-9599-940907220B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7EE1AF-2598-7342-9E4C-128E6B783CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CFC906C4-3430-0942-857A-28995FD698FD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Work-Report Trello</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Karten ohne Aktivität</t>
-  </si>
-  <si>
-    <t>Bewegte Karten:</t>
   </si>
   <si>
     <t>Vorwärts</t>
@@ -370,6 +367,37 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Bewegungen:</t>
+  </si>
+  <si>
+    <t>Auf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bewegungen von Karten entgegen der definierten Richtung sind zu reduzieren. Du kannst Karten </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next Condensed Regular"/>
+      </rPr>
+      <t>alte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next Condensed Regular"/>
+      </rPr>
+      <t xml:space="preserve"> Karten kopieren anstelle diese für neue Aufgaben zu modifizieren.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stern, wenn sie alle drei Qualitätsmerkmale einer Karte erfüllt sind: Beschreibung, Stichtag und Verantwortlichkeit. Einen Shit-Haufen kommt, wenn nur ein Merkmal oder weniger erfüllt ist.</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -598,30 +626,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,12 +670,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -657,9 +695,9 @@
   <colors>
     <mruColors>
       <color rgb="FF3091BD"/>
+      <color rgb="FF64AA72"/>
+      <color rgb="FFBE5A54"/>
       <color rgb="FFFFAA3A"/>
-      <color rgb="FFBE5A54"/>
-      <color rgb="FF64AA72"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1711,7 +1749,7 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="47625" cap="rnd">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
@@ -1725,7 +1763,7 @@
               <a:solidFill>
                 <a:srgbClr val="BE5A54"/>
               </a:solidFill>
-              <a:ln w="47625" cap="rnd">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
@@ -1744,7 +1782,7 @@
               <a:solidFill>
                 <a:srgbClr val="64AA72"/>
               </a:solidFill>
-              <a:ln w="47625" cap="rnd">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
@@ -1756,37 +1794,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A616-A948-9EDA-1DB5D96CC02C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A616-A948-9EDA-1DB5D96CC02C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -1802,14 +1809,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Avenir Next Condensed Demi Bold" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1818,11 +1825,12 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1859,9 +1867,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$A$21:$B$21</c:f>
+              <c:f>Tabelle1!$A$22:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1886,7 +1894,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="33"/>
         <c:axId val="1997497503"/>
         <c:axId val="1931759119"/>
@@ -1920,14 +1928,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1963,7 +1971,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8337,15 +8345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790225</xdr:colOff>
+      <xdr:colOff>780065</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>49445</xdr:rowOff>
+      <xdr:rowOff>252645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>773740</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55692</xdr:rowOff>
+      <xdr:colOff>763580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45532</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8373,15 +8381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13956</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>698</xdr:rowOff>
+      <xdr:colOff>24116</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>807706</xdr:colOff>
+      <xdr:colOff>817866</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>48323</xdr:rowOff>
+      <xdr:rowOff>200723</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8789,15 +8797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>780816</xdr:colOff>
+      <xdr:colOff>801136</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>216371</xdr:rowOff>
+      <xdr:rowOff>23331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>790223</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>159927</xdr:rowOff>
+      <xdr:colOff>810543</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180247</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9162,10 +9170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DD0F6-3DED-FF4C-8A10-F6FE212751A8}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -9176,14 +9184,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2">
         <f ca="1">TODAY()</f>
         <v>44020</v>
@@ -9193,44 +9201,44 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="58" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="126" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="A4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="20">
       <c r="A6" s="6" t="s">
@@ -9243,13 +9251,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
@@ -9268,93 +9276,93 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="70" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>46</v>
+      <c r="C17" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="18">
         <v>0</v>
       </c>
     </row>
@@ -9362,44 +9370,46 @@
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>46</v>
+      <c r="C18" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1">
+        <v>27</v>
+      </c>
+      <c r="G18" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="D19" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="1">
+        <v>26</v>
+      </c>
+      <c r="G19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -9408,103 +9418,136 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
+      <c r="C21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="25" t="e">
+        <f>A21/D19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="25" t="e">
+        <f>B21/D19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15">
         <v>0</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="19">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="19">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="15">
         <v>0</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="15">
         <v>0</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="19">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="15">
         <v>0</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="20">
       <c r="A33" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
-        <v>32</v>
+      <c r="A34" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9541,7 +9584,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -9551,6 +9594,9 @@
       </c>
     </row>
     <row r="40" spans="1:6">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
@@ -9572,12 +9618,12 @@
     </row>
     <row r="46" spans="1:6" ht="20">
       <c r="A46" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13" t="s">
-        <v>34</v>
+      <c r="A47" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9604,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9617,7 +9663,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -9625,18 +9671,18 @@
     </row>
     <row r="58" spans="1:7" ht="20">
       <c r="A58" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9644,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9652,9 +9698,9 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="15">
+        <v>36</v>
+      </c>
+      <c r="G62" s="13">
         <f>G60-G61</f>
         <v>0</v>
       </c>
@@ -9669,33 +9715,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20">
+    <row r="68" spans="1:7" ht="20">
       <c r="A68" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="77" spans="1:7">
+      <c r="A77" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="C21:E25"/>
+    <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>

--- a/trello_report_vorlage.xlsx
+++ b/trello_report_vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml/Documents/GitHub/SodisTools_development/SodisTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7EE1AF-2598-7342-9E4C-128E6B783CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D36ECB-1C83-214F-B9C5-F318459146A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CFC906C4-3430-0942-857A-28995FD698FD}"/>
   </bookViews>
@@ -597,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -627,7 +627,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -652,6 +651,24 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,20 +687,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8797,13 +8802,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>801136</xdr:colOff>
+      <xdr:colOff>750336</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>23331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>810543</xdr:colOff>
+      <xdr:colOff>759743</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>180247</xdr:rowOff>
     </xdr:to>
@@ -9173,7 +9178,7 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="G60" sqref="G60:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -9184,14 +9189,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="2">
         <f ca="1">TODAY()</f>
         <v>44020</v>
@@ -9201,44 +9206,44 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="58" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="126" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="20">
       <c r="A6" s="6" t="s">
@@ -9276,93 +9281,93 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="70" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>0</v>
       </c>
     </row>
@@ -9370,7 +9375,7 @@
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -9379,7 +9384,7 @@
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>0</v>
       </c>
     </row>
@@ -9387,13 +9392,13 @@
       <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>0</v>
       </c>
     </row>
@@ -9407,7 +9412,7 @@
       <c r="C20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9418,124 +9423,124 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="25" t="e">
+      <c r="A22" s="24" t="e">
         <f>A21/D19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="25" t="e">
+      <c r="B22" s="24" t="e">
         <f>B21/D19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>0</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>0</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>0</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>0</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>0</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="20">
       <c r="A33" s="6" t="s">
@@ -9684,6 +9689,7 @@
       <c r="F60" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="1">
@@ -9692,6 +9698,7 @@
       <c r="F61" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G61" s="27"/>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="1">
@@ -9700,7 +9707,7 @@
       <c r="F62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="39">
         <f>G60-G61</f>
         <v>0</v>
       </c>
@@ -9741,29 +9748,29 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C21:E25"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/trello_report_vorlage.xlsx
+++ b/trello_report_vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml/Documents/GitHub/SodisTools_development/SodisTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D36ECB-1C83-214F-B9C5-F318459146A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065238C-E2F0-4E4D-BAA3-4AF2F1095823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CFC906C4-3430-0942-857A-28995FD698FD}"/>
   </bookViews>
@@ -396,7 +396,42 @@
     </r>
   </si>
   <si>
-    <t>Stern, wenn sie alle drei Qualitätsmerkmale einer Karte erfüllt sind: Beschreibung, Stichtag und Verantwortlichkeit. Einen Shit-Haufen kommt, wenn nur ein Merkmal oder weniger erfüllt ist.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next Condensed Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next Condensed Regular"/>
+      </rPr>
+      <t xml:space="preserve">, wenn Beschreibung, Stichtag und Verantwortlichkeit. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next Condensed Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next Condensed Regular"/>
+      </rPr>
+      <t>-Haufen, wenn ein Merkmal oder weniger.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -407,7 +442,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,6 +520,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Avenir Next Condensed Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Next Condensed Regular"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -597,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -654,20 +695,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,8 +719,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,9 +746,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF3091BD"/>
+      <color rgb="FFC2DEC8"/>
+      <color rgb="FFAAD0B2"/>
+      <color rgb="FF92C39C"/>
+      <color rgb="FF7BB787"/>
       <color rgb="FF64AA72"/>
-      <color rgb="FFBE5A54"/>
+      <color rgb="FFFDDCB0"/>
+      <color rgb="FFFFD193"/>
+      <color rgb="FFFFC475"/>
+      <color rgb="FFFFB657"/>
       <color rgb="FFFFAA3A"/>
     </mruColors>
   </colors>
@@ -1176,25 +1229,33 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3091BD"/>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AA67-6B42-AEC4-B7421851EF13}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -1204,14 +1265,27 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="6EB2D1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-AA67-6B42-AEC4-B7421851EF13}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -1226,9 +1300,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -1252,6 +1324,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1431,32 +1518,34 @@
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3091BD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FF20-124E-9FF0-B6C39117E0EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1470,13 +1559,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1490,13 +1574,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1510,13 +1589,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1618,7 +1692,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2086,7 +2160,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2099,10 +2173,6 @@
               <a:solidFill>
                 <a:srgbClr val="3091BD"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2116,14 +2186,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2137,14 +2201,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2158,14 +2216,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2179,14 +2231,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2461,29 +2507,37 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFAA3A"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFAA3A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-475E-0741-B36F-42F0DC581E42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2502,9 +2556,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2523,9 +2575,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2544,9 +2594,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2837,29 +2885,37 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="64AA72"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="64AA72"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4124-9444-AC6C-E87D906A7C1C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="7BB787"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2878,9 +2934,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:srgbClr val="92C39C"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2899,9 +2953,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="AAD0B2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2920,9 +2972,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="C2DEC8"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2950,6 +3000,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3198,29 +3263,37 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFAA3A"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFAA3A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C982-474D-8245-6FB3D8FC86BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3239,9 +3312,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3260,9 +3331,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3281,9 +3350,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3728,6 +3795,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3908,25 +3978,33 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="64AA72"/>
-            </a:solidFill>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="64AA72"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2E4B-E443-838D-7F545CC50ECE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:srgbClr val="7BB787"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -3941,9 +4019,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
+                <a:srgbClr val="92C39C"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -3958,9 +4034,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="55000"/>
-                </a:srgbClr>
+                <a:srgbClr val="AAD0B2"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -3975,9 +4049,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72">
-                  <a:alpha val="40000"/>
-                </a:srgbClr>
+                <a:srgbClr val="C2DEC8"/>
               </a:solidFill>
             </c:spPr>
             <c:extLst>
@@ -8424,13 +8496,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>60965</xdr:rowOff>
+      <xdr:rowOff>5</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9407</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8563,12 +8635,8 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="76200" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="3175" cap="rnd">
+          <a:noFill/>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -8622,12 +8690,8 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="76200" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="3175" cap="rnd">
+          <a:noFill/>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -8653,14 +8717,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>18815</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>252495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9407</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>18810</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>211850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8690,13 +8754,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>18815</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>11288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>37629</xdr:colOff>
+      <xdr:colOff>18814</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>206963</xdr:rowOff>
     </xdr:to>
@@ -9177,8 +9241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DD0F6-3DED-FF4C-8A10-F6FE212751A8}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60:G62"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -9189,14 +9253,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="2">
         <f ca="1">TODAY()</f>
         <v>44020</v>
@@ -9206,44 +9270,44 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="58" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="126" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="20">
       <c r="A6" s="6" t="s">
@@ -9332,30 +9396,30 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="70" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="B17" s="7" t="s">
@@ -9423,11 +9487,11 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="24" t="e">
@@ -9438,24 +9502,24 @@
         <f>B21/D19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="15" t="s">
@@ -9599,9 +9663,6 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
@@ -9665,12 +9726,33 @@
       <c r="C51" s="1">
         <v>0</v>
       </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9707,7 +9789,7 @@
       <c r="F62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="39">
+      <c r="G62" s="28">
         <f>G60-G61</f>
         <v>0</v>
       </c>
@@ -9722,6 +9804,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65" spans="1:7">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="68" spans="1:7" ht="20">
       <c r="A68" s="6" t="s">
         <v>37</v>
@@ -9731,46 +9818,67 @@
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G70" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G71" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B72" s="1">
+        <f>B70-B71-B73</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G73" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="G74" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C21:E25"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/trello_report_vorlage.xlsx
+++ b/trello_report_vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml/Documents/GitHub/SodisTools_development/SodisTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065238C-E2F0-4E4D-BAA3-4AF2F1095823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494BD290-6F43-7043-84A5-1FF1AED8CA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CFC906C4-3430-0942-857A-28995FD698FD}"/>
   </bookViews>
@@ -1168,350 +1168,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" b="0" i="0">
-                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Sternkarten</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37353578695624762"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.4651734253296612E-2"/>
-          <c:y val="0.18339339823314324"/>
-          <c:w val="0.86850283755199276"/>
-          <c:h val="0.40914255212387429"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="3091BD"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-AA67-6B42-AEC4-B7421851EF13}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4FA1C7"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E24B-0648-B2C8-0460FC0FA7DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="6EB2D1"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-AA67-6B42-AEC4-B7421851EF13}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="8DC3DC"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E24B-0648-B2C8-0460FC0FA7DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ACD3E5"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E24B-0648-B2C8-0460FC0FA7DF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$F$70:$F$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$G$70:$G$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E24B-0648-B2C8-0460FC0FA7DF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="20"/>
-        <c:axId val="1776243775"/>
-        <c:axId val="1776245407"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1776243775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1776245407"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1776245407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1776243775"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="0" i="0">
-          <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1779,6 +1435,336 @@
     <a:ln>
       <a:noFill/>
     </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0">
+          <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" b="0" i="0">
+                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Aktivste</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" b="0" i="0" baseline="0">
+                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Helfer</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" b="0" i="0">
+              <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="64AA72"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7BB787"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0D9C-434C-BFFF-A4E2C38652CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92C39C"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0D9C-434C-BFFF-A4E2C38652CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AAD0B2"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0D9C-434C-BFFF-A4E2C38652CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C2DEC8"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0D9C-434C-BFFF-A4E2C38652CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$E$51:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$51:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0D9C-434C-BFFF-A4E2C38652CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="20"/>
+        <c:axId val="1776243775"/>
+        <c:axId val="1776245407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1776243775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1776245407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1776245407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1776243775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2845,7 +2831,7 @@
               <a:rPr lang="de-DE" b="0" i="0">
                 <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Aktivste Helfer</a:t>
+              <a:t>Abgeschlossene Karten</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2858,26 +2844,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2896,7 +2862,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="FFAA3A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2905,7 +2871,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-4124-9444-AC6C-E87D906A7C1C}"/>
+                <c16:uniqueId val="{0000002B-1899-B947-9208-DFE4B6FCA437}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2915,7 +2881,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7BB787"/>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2924,7 +2890,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-EB11-8546-8152-5E54DB0CBE95}"/>
+                <c16:uniqueId val="{0000002D-1899-B947-9208-DFE4B6FCA437}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2934,7 +2900,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92C39C"/>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2943,7 +2909,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-EB11-8546-8152-5E54DB0CBE95}"/>
+                <c16:uniqueId val="{0000002F-1899-B947-9208-DFE4B6FCA437}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2953,7 +2919,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AAD0B2"/>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2962,7 +2928,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-EB11-8546-8152-5E54DB0CBE95}"/>
+                <c16:uniqueId val="{00000031-1899-B947-9208-DFE4B6FCA437}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2972,7 +2938,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C2DEC8"/>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2981,13 +2947,13 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-EB11-8546-8152-5E54DB0CBE95}"/>
+                <c16:uniqueId val="{00000033-1899-B947-9208-DFE4B6FCA437}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$E$51:$E$55</c:f>
+              <c:f>Tabelle1!$B$48:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2996,7 +2962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$51:$F$55</c:f>
+              <c:f>Tabelle1!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3020,7 +2986,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-EB11-8546-8152-5E54DB0CBE95}"/>
+              <c16:uniqueId val="{00000034-1899-B947-9208-DFE4B6FCA437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3144,13 +3110,6 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3187,384 +3146,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" b="0" i="0">
-                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Abgeschlossene Karten</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C982-474D-8245-6FB3D8FC86BC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFB657"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-522B-0240-8CE0-71164CBC1B62}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC475"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-522B-0240-8CE0-71164CBC1B62}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFD193"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-522B-0240-8CE0-71164CBC1B62}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FDDCB0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-522B-0240-8CE0-71164CBC1B62}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$B$48:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$48:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-522B-0240-8CE0-71164CBC1B62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="20"/>
-        <c:axId val="1776243775"/>
-        <c:axId val="1776245407"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1776243775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1776245407"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1776245407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1776243775"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="0" i="0">
-          <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3901,7 +3482,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4249,7 +3830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4568,6 +4149,350 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" b="0" i="0">
+                <a:latin typeface="Avenir Next Condensed Medium" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Sternkarten</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37353578695624762"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4651734253296612E-2"/>
+          <c:y val="0.18339339823314324"/>
+          <c:w val="0.86850283755199276"/>
+          <c:h val="0.40914255212387429"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AA67-6B42-AEC4-B7421851EF13}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4FA1C7"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E24B-0648-B2C8-0460FC0FA7DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="6EB2D1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-AA67-6B42-AEC4-B7421851EF13}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8DC3DC"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E24B-0648-B2C8-0460FC0FA7DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ACD3E5"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E24B-0648-B2C8-0460FC0FA7DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$F$70:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$70:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E24B-0648-B2C8-0460FC0FA7DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="20"/>
+        <c:axId val="1776243775"/>
+        <c:axId val="1776245407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1776243775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1776245407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1776245407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1776243775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0">
+          <a:latin typeface="Avenir Next Condensed" panose="020B0506020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4768,86 +4693,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -6374,7 +6219,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6431,7 +6276,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6482,6 +6327,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6492,12 +6344,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6535,1026 +6394,6 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -7898,7 +6737,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8496,13 +7335,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>5</xdr:rowOff>
+      <xdr:rowOff>10165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9407</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8531,14 +7370,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>751842</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>18807</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>761250</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>59443</xdr:rowOff>
+      <xdr:rowOff>18802</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8560,44 +7399,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>760496</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>241574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>769904</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>28208</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35CD1E0-A2DA-A947-8F29-88EB10C2D9CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8745,7 +7546,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8781,7 +7582,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8819,7 +7620,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8857,7 +7658,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8895,7 +7696,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8933,10 +7734,176 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771407</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>182875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Diagramm 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFDDAFD-6E19-EF4A-9A1C-13B6093AC516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9407</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gewinkelte Verbindung 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB0BEC6-1502-FB40-AB52-B8F36EA5CF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2478287" y="11465562"/>
+          <a:ext cx="752593" cy="2560315"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9407</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>751842</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gewinkelte Verbindung 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE1775C-37AA-C544-9EEC-AA48908EE3CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2478287" y="11464800"/>
+          <a:ext cx="742435" cy="762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9241,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DD0F6-3DED-FF4C-8A10-F6FE212751A8}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:G77"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A35" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -9263,7 +8230,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="2">
         <f ca="1">TODAY()</f>
-        <v>44020</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
